--- a/Urort_Skov_Ownership.xlsx
+++ b/Urort_Skov_Ownership.xlsx
@@ -12,15 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
+    <t xml:space="preserve">Kommunal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statslig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Exclusive</t>
@@ -368,27 +377,54 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>8.9374</v>
+        <v>0.0426</v>
       </c>
       <c r="C2" t="n">
-        <v>178.1938</v>
+        <v>2.4833</v>
+      </c>
+      <c r="D2" t="n">
+        <v>169.0242</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1979</v>
+      </c>
+      <c r="F2" t="n">
+        <v>172.748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3436</v>
+        <v>0.4265</v>
       </c>
       <c r="C3" t="n">
-        <v>495.2492</v>
+        <v>31.3902</v>
+      </c>
+      <c r="D3" t="n">
+        <v>482.3526</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.8102</v>
+      </c>
+      <c r="F3" t="n">
+        <v>524.9795</v>
       </c>
     </row>
   </sheetData>

--- a/Urort_Skov_Ownership.xlsx
+++ b/Urort_Skov_Ownership.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0426</v>
+        <v>0.0331</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4833</v>
+        <v>2.1583</v>
       </c>
       <c r="D2" t="n">
-        <v>169.0242</v>
+        <v>152.2319</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1979</v>
+        <v>0.9397</v>
       </c>
       <c r="F2" t="n">
-        <v>172.748</v>
+        <v>155.363</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4265</v>
+        <v>0.4055</v>
       </c>
       <c r="C3" t="n">
-        <v>31.3902</v>
+        <v>26.4743</v>
       </c>
       <c r="D3" t="n">
-        <v>482.3526</v>
+        <v>413.7398</v>
       </c>
       <c r="E3" t="n">
-        <v>10.8102</v>
+        <v>3.7279</v>
       </c>
       <c r="F3" t="n">
-        <v>524.9795</v>
+        <v>444.3475</v>
       </c>
     </row>
   </sheetData>
